--- a/verify/latest_pol.xlsx
+++ b/verify/latest_pol.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\ML--Native-Bayes\verify\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="shee1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:GZ164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
